--- a/biology/Histoire de la zoologie et de la botanique/Rolf_Martin_Theodor_Dahlgren/Rolf_Martin_Theodor_Dahlgren.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rolf_Martin_Theodor_Dahlgren/Rolf_Martin_Theodor_Dahlgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolf Martin Theodor Dahlgren, né en 1932 et mort en 1987 est un botaniste danois, professeur à l'Université de Copenhague de 1973 à sa mort.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille sur l'Afrique du Sud au cours d'expéditions à la découverte de plantes entre 1956-57 et 1965-66, alors affilié au Musée botanique de Lund docent. En 1973, il devient professeur de botanique à l'Université de Copenhague.
 Il est l'auteur de la classification de Dahlgren, une des grandes classifications classiques des plantes à fleurs (Angiospermes). Ici, il a développé un système basé sur un nombre plus important de caractères simultanés par rapport aux systèmes précédents, notamment grâce à de nombreuses analyses chimiques pour mettre en évidence les ressemblances entre les plantes. Bien que le système ait d'abord été présenté en danois, son travail a rapidement gagné une large acceptation, notamment en raison des diagrammes instructifs, dits "Dahlgrenograms". Son travail sur la classification des familles chez les Monocotylédones, publié avec Harold Trevor Clifford (es) et Peter Yeo, a eu une influence profonde et dans l'ère moléculaire.
@@ -546,7 +560,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Classification de Dahlgren
 Classification classique</t>
